--- a/medicine/Bioéthique/Guy_Durand_(théologien)/Guy_Durand_(théologien).xlsx
+++ b/medicine/Bioéthique/Guy_Durand_(théologien)/Guy_Durand_(théologien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guy_Durand_(th%C3%A9ologien)</t>
+          <t>Guy_Durand_(théologien)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guy Durand est un théologien et juriste québécois, spécialisé en éthique, né en 1933[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy Durand est un théologien et juriste québécois, spécialisé en éthique, né en 1933.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guy_Durand_(th%C3%A9ologien)</t>
+          <t>Guy_Durand_(théologien)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guy Durand est professeur émérite de l'Université de Montréal. Il a été nommé membre honoraire de la Faculté de médecine pour son implication en éthique médicale. Après des études en droit et en sciences religieuses au Québec, Guy Durand a poursuivi sa formation à Lyon (doctorat en théologie) puis à Münster (langue et théologie) et à Paris (éthique médicale). Le professeur Durand a travaillé dans plusieurs postes à l'Université de Montréal : d'abord à l'Institut supérieur de sciences religieuses, devenue la Faculté de théologie et de sciences des religions; enfin, à la Faculté de médecine et à la Faculté des études supérieures. Il est le père de trois enfants dont le physicien Stéphane Durand.
 On peut diviser sa carrière universitaire en trois périodes distinctes : dans un premier temps, le professeur Durand a axé son enseignement et ses recherches sur l'éthique théologique et la formation des maîtres, par la suite, son travail a porté sur la bioéthique et le monde de la santé. Depuis sa retraite, il s'intéresse surtout à l'éthique sociale et politique, bien qu'il ait terminé la publication de deux livres-synthèses importants: sur la bioéthique et sur l'éthique chrétienne.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guy_Durand_(th%C3%A9ologien)</t>
+          <t>Guy_Durand_(théologien)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les références d'ouvrages proviennent du catalogue IRIS de Bibliothèque et Archives nationales du Québec (BAnQ). Toutefois, plusieurs des livres disposent aussi d'une notice individuelle dans le catalogue BN-Opale Plus de la Bibliothèque nationale de France (BNF).
 Éthique de la rencontre sexuelle (avec une préface de Jocelyne Durand), éditions Fides, Montréal, 1971, 192 p., [pas d'ISBN].
